--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value789.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value789.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.690075855213389</v>
+        <v>1.791792750358582</v>
       </c>
       <c r="B1">
-        <v>3.473459370768102</v>
+        <v>4.292407989501953</v>
       </c>
       <c r="C1">
-        <v>2.935723912318862</v>
+        <v>1.587259411811829</v>
       </c>
       <c r="D1">
-        <v>2.136851279889353</v>
+        <v>0.8649300932884216</v>
       </c>
       <c r="E1">
-        <v>1.234044763381033</v>
+        <v>0.4668846726417542</v>
       </c>
     </row>
   </sheetData>
